--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>№</t>
   </si>
@@ -55,13 +55,19 @@
   </si>
   <si>
     <t>https://uzkip.uz/ru/izmeritel-koefficienta-mosnosti-fazometr-dmk-84-r1-s-relejnym-vyhodom-365885/</t>
+  </si>
+  <si>
+    <t>95 450 02 00 Shukrillo</t>
+  </si>
+  <si>
+    <t>https://www.olx.uz/d/obyavlenie/trelleborg-uplotnitel-samokleyuschiysya-ID3sPb4.html?reason=extended_search_extended_category</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +79,15 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -148,10 +163,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -178,8 +194,14 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -479,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +516,7 @@
     <col min="9" max="9" width="9.140625" style="8"/>
     <col min="10" max="10" width="24.140625" style="8" customWidth="1"/>
     <col min="12" max="12" width="24.140625" style="8" customWidth="1"/>
-    <col min="13" max="13" width="27.5703125" customWidth="1"/>
+    <col min="13" max="13" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -525,11 +547,11 @@
         <v>50</v>
       </c>
       <c r="F2" s="7">
-        <v>350000</v>
+        <v>410000</v>
       </c>
       <c r="H2" s="9">
         <f>D2*F2</f>
-        <v>17500000</v>
+        <v>20500000</v>
       </c>
       <c r="J2" s="9">
         <v>695652.17</v>
@@ -537,6 +559,7 @@
       <c r="L2" s="9">
         <v>150000</v>
       </c>
+      <c r="M2" s="11"/>
     </row>
     <row r="3" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
@@ -551,18 +574,23 @@
       <c r="D3" s="5">
         <v>20</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="7">
+        <v>513400</v>
+      </c>
       <c r="H3" s="9">
-        <f t="shared" ref="H3:J8" si="0">D3*F3</f>
-        <v>0</v>
+        <f t="shared" ref="H3:H8" si="0">D3*F3</f>
+        <v>10268000</v>
       </c>
       <c r="J3" s="9">
         <v>1086940</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="N3" t="s">
+      <c r="L3" s="9">
+        <v>300000</v>
+      </c>
+      <c r="M3" s="11" t="s">
         <v>12</v>
       </c>
+      <c r="N3" s="10"/>
     </row>
     <row r="4" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
@@ -587,7 +615,10 @@
       <c r="J4" s="9">
         <v>128695.65</v>
       </c>
-      <c r="L4" s="9"/>
+      <c r="L4" s="9">
+        <v>70000</v>
+      </c>
+      <c r="M4" s="11"/>
     </row>
     <row r="5" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
@@ -602,15 +633,25 @@
       <c r="D5" s="5">
         <v>1000</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7">
+        <v>20000</v>
+      </c>
       <c r="H5" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20000000</v>
       </c>
       <c r="J5" s="9">
         <v>45000</v>
       </c>
-      <c r="L5" s="9"/>
+      <c r="L5" s="9">
+        <v>10000</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
@@ -635,7 +676,10 @@
       <c r="J6" s="9">
         <v>156521.74</v>
       </c>
-      <c r="L6" s="9"/>
+      <c r="L6" s="9">
+        <v>60000</v>
+      </c>
+      <c r="M6" s="11"/>
     </row>
     <row r="7" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
@@ -650,15 +694,18 @@
       <c r="D7" s="5">
         <v>20</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7">
+        <v>1820000</v>
+      </c>
       <c r="H7" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36400000</v>
       </c>
       <c r="J7" s="9">
         <v>7704347.8300000001</v>
       </c>
       <c r="L7" s="9"/>
+      <c r="M7" s="11"/>
     </row>
     <row r="8" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
@@ -682,11 +729,21 @@
         <v>8000000</v>
       </c>
       <c r="L8" s="9"/>
+      <c r="M8" s="11"/>
     </row>
     <row r="9" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="9">
+        <f>SUM(H2:H9)</f>
+        <v>93236000</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
